--- a/data/pca/factorExposure/factorExposure_2011-03-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-03-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +735,48 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.01094585687419743</v>
+        <v>-0.0138841423210203</v>
       </c>
       <c r="C2">
-        <v>0.00178905068308479</v>
+        <v>-0.006145379516310205</v>
       </c>
       <c r="D2">
-        <v>0.01284947439557409</v>
+        <v>0.004938415657558916</v>
       </c>
       <c r="E2">
-        <v>0.01954290121030627</v>
+        <v>-0.01030007827780104</v>
       </c>
       <c r="F2">
-        <v>0.001012003784953371</v>
+        <v>-0.004807697555582779</v>
       </c>
       <c r="G2">
-        <v>0.01547707137543409</v>
+        <v>-0.01934750616788119</v>
       </c>
       <c r="H2">
-        <v>-0.04307434594634796</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.002454267822857764</v>
+      </c>
+      <c r="I2">
+        <v>-0.008492159043655068</v>
+      </c>
+      <c r="J2">
+        <v>0.006883207875781516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +799,48 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.1067679565992341</v>
+        <v>-0.1214016978405551</v>
       </c>
       <c r="C4">
-        <v>-0.02220124655164126</v>
+        <v>-0.05516852243456571</v>
       </c>
       <c r="D4">
-        <v>0.0737987078826992</v>
+        <v>0.006128694269893574</v>
       </c>
       <c r="E4">
-        <v>0.03335912306771495</v>
+        <v>0.003448638093514447</v>
       </c>
       <c r="F4">
-        <v>0.05354598378536027</v>
+        <v>-0.01030835020605699</v>
       </c>
       <c r="G4">
-        <v>0.01571410432294927</v>
+        <v>-0.00888270807788941</v>
       </c>
       <c r="H4">
-        <v>0.02617354262047411</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.07293857299545309</v>
+      </c>
+      <c r="I4">
+        <v>-0.1306498384253196</v>
+      </c>
+      <c r="J4">
+        <v>0.0592016148412854</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +863,368 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>-0.1296807747941955</v>
+        <v>-0.1248386417330125</v>
       </c>
       <c r="C6">
-        <v>-0.02483445720257168</v>
+        <v>-0.0003871454231169842</v>
       </c>
       <c r="D6">
-        <v>0.01178078258881316</v>
+        <v>0.0108848123540131</v>
       </c>
       <c r="E6">
-        <v>0.02069163410054671</v>
+        <v>-0.01847697155145479</v>
       </c>
       <c r="F6">
-        <v>-0.1883390488670486</v>
+        <v>-0.01961467623509825</v>
       </c>
       <c r="G6">
-        <v>-0.1081953592957964</v>
+        <v>0.0354297084918998</v>
       </c>
       <c r="H6">
-        <v>0.2892636514398332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.04300948978309215</v>
+      </c>
+      <c r="I6">
+        <v>-0.06721343313391269</v>
+      </c>
+      <c r="J6">
+        <v>-0.1754978360623864</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.08938955351933213</v>
+        <v>-0.07961894417604636</v>
       </c>
       <c r="C7">
-        <v>-0.0373201526470259</v>
+        <v>-0.04830124251235034</v>
       </c>
       <c r="D7">
-        <v>0.03454501076740901</v>
+        <v>0.03736414654484947</v>
       </c>
       <c r="E7">
-        <v>0.05262632814923648</v>
+        <v>-0.04081622354870301</v>
       </c>
       <c r="F7">
-        <v>-0.002307402224371093</v>
+        <v>-0.007969149929626424</v>
       </c>
       <c r="G7">
-        <v>-0.003885496290557186</v>
+        <v>-0.04346857326679222</v>
       </c>
       <c r="H7">
-        <v>0.0003173461708197787</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.02036907937666805</v>
+      </c>
+      <c r="I7">
+        <v>-0.0253300522042926</v>
+      </c>
+      <c r="J7">
+        <v>0.04434418193581613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04288634204528961</v>
+        <v>-0.05291037053772844</v>
       </c>
       <c r="C8">
-        <v>0.03517458667407625</v>
+        <v>-0.01273701620426738</v>
       </c>
       <c r="D8">
-        <v>0.1173511051341703</v>
+        <v>0.005267396520177214</v>
       </c>
       <c r="E8">
-        <v>0.08625138309396187</v>
+        <v>-0.01577797455703816</v>
       </c>
       <c r="F8">
-        <v>0.04557861720776409</v>
+        <v>0.002288750785498542</v>
       </c>
       <c r="G8">
-        <v>0.132280990461192</v>
+        <v>-0.004605894510985058</v>
       </c>
       <c r="H8">
-        <v>0.06196439345585204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.09475781018236643</v>
+      </c>
+      <c r="I8">
+        <v>-0.1013665873161325</v>
+      </c>
+      <c r="J8">
+        <v>0.0133755652819045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.09237789787451507</v>
+        <v>-0.09261637835457706</v>
       </c>
       <c r="C9">
-        <v>-0.0404200476449531</v>
+        <v>-0.0548448355324781</v>
       </c>
       <c r="D9">
-        <v>0.0621696550645955</v>
+        <v>-0.006401626654911026</v>
       </c>
       <c r="E9">
-        <v>0.03770455275394649</v>
+        <v>-0.0076932468069914</v>
       </c>
       <c r="F9">
-        <v>0.03414445524653447</v>
+        <v>-0.001587330251109654</v>
       </c>
       <c r="G9">
-        <v>0.06145691738251061</v>
+        <v>-0.0226925342213742</v>
       </c>
       <c r="H9">
-        <v>0.0417591554825048</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.078154970039529</v>
+      </c>
+      <c r="I9">
+        <v>-0.1092538585655823</v>
+      </c>
+      <c r="J9">
+        <v>0.02940425611275425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.03930344511016136</v>
+        <v>-0.08147751368199845</v>
       </c>
       <c r="C10">
-        <v>0.1724126890617939</v>
+        <v>0.183318966286623</v>
       </c>
       <c r="D10">
-        <v>0.04883365498434707</v>
+        <v>-0.01542996891444323</v>
       </c>
       <c r="E10">
-        <v>0.09948700166443455</v>
+        <v>0.01204949425587261</v>
       </c>
       <c r="F10">
-        <v>-0.003282332489929527</v>
+        <v>-0.01574213993029745</v>
       </c>
       <c r="G10">
-        <v>-0.0251291424180432</v>
+        <v>-0.06268246449643351</v>
       </c>
       <c r="H10">
-        <v>0.0285698395380789</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.008554950338751076</v>
+      </c>
+      <c r="I10">
+        <v>0.002948464485773659</v>
+      </c>
+      <c r="J10">
+        <v>0.01983486892220263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.07710695474893908</v>
+        <v>-0.08190577709442845</v>
       </c>
       <c r="C11">
-        <v>-0.06147384085639739</v>
+        <v>-0.05259218473671631</v>
       </c>
       <c r="D11">
-        <v>-0.004717059727169869</v>
+        <v>0.02359338939622639</v>
       </c>
       <c r="E11">
-        <v>0.03240944579258356</v>
+        <v>-0.02514242212080614</v>
       </c>
       <c r="F11">
-        <v>0.0156780727205334</v>
+        <v>0.03233559955919608</v>
       </c>
       <c r="G11">
-        <v>0.1594575176188368</v>
+        <v>-0.001900445853337434</v>
       </c>
       <c r="H11">
-        <v>-0.05797482794972827</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.08469363193644502</v>
+      </c>
+      <c r="I11">
+        <v>-0.08705984811171633</v>
+      </c>
+      <c r="J11">
+        <v>0.005002092921607384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.07296516274305841</v>
+        <v>-0.08371248261252615</v>
       </c>
       <c r="C12">
-        <v>-0.04260436528873213</v>
+        <v>-0.06047003441402801</v>
       </c>
       <c r="D12">
-        <v>0.03316556943144904</v>
+        <v>0.02706921500337129</v>
       </c>
       <c r="E12">
-        <v>0.01376430071603364</v>
+        <v>-0.03334211466600143</v>
       </c>
       <c r="F12">
-        <v>-0.004629898761487451</v>
+        <v>0.05483718022389498</v>
       </c>
       <c r="G12">
-        <v>0.1450684604617369</v>
+        <v>-0.02005062752753031</v>
       </c>
       <c r="H12">
-        <v>-0.03003756573001369</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.09547249900985529</v>
+      </c>
+      <c r="I12">
+        <v>-0.07526606801296501</v>
+      </c>
+      <c r="J12">
+        <v>-0.01517567823910402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.06420372978136089</v>
+        <v>-0.04453578223818011</v>
       </c>
       <c r="C13">
-        <v>-0.006729316705990495</v>
+        <v>-0.02864031448054101</v>
       </c>
       <c r="D13">
-        <v>0.02653067584821279</v>
+        <v>-0.02419963332003258</v>
       </c>
       <c r="E13">
-        <v>-0.0009614822585785567</v>
+        <v>-0.0124032487472564</v>
       </c>
       <c r="F13">
-        <v>0.05685294684889098</v>
+        <v>-0.02791690396503875</v>
       </c>
       <c r="G13">
-        <v>0.05939019642720404</v>
+        <v>-0.01499592321765648</v>
       </c>
       <c r="H13">
-        <v>0.003906144013159632</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.05934981511295607</v>
+      </c>
+      <c r="I13">
+        <v>-0.05520928720322407</v>
+      </c>
+      <c r="J13">
+        <v>-0.01382256555136967</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.05242583745952726</v>
+        <v>-0.03698292786337534</v>
       </c>
       <c r="C14">
-        <v>-0.007064533366425695</v>
+        <v>-0.00581959230827298</v>
       </c>
       <c r="D14">
-        <v>0.03869489103621851</v>
+        <v>0.005936598669520544</v>
       </c>
       <c r="E14">
-        <v>0.05090922805811796</v>
+        <v>0.008854267237497479</v>
       </c>
       <c r="F14">
-        <v>0.03482047295247358</v>
+        <v>0.008193098152757995</v>
       </c>
       <c r="G14">
-        <v>0.02656976537608194</v>
+        <v>-0.006596308051407613</v>
       </c>
       <c r="H14">
-        <v>0.1366057622030923</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.05311870239013666</v>
+      </c>
+      <c r="I14">
+        <v>-0.05063767566107345</v>
+      </c>
+      <c r="J14">
+        <v>0.07783221202481135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.03595332445254655</v>
+        <v>-0.02502863546846137</v>
       </c>
       <c r="C15">
-        <v>0.01040031225922135</v>
+        <v>-0.007279004853555403</v>
       </c>
       <c r="D15">
-        <v>0.01197840917112906</v>
+        <v>-0.01023666005878632</v>
       </c>
       <c r="E15">
-        <v>0.02047760262151318</v>
+        <v>-0.01274517605337325</v>
       </c>
       <c r="F15">
-        <v>0.00931774344706443</v>
+        <v>-0.03886147969945196</v>
       </c>
       <c r="G15">
-        <v>0.01101035357445882</v>
+        <v>-0.008486040917332864</v>
       </c>
       <c r="H15">
-        <v>0.05797664643007081</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.01543552616066832</v>
+      </c>
+      <c r="I15">
+        <v>-0.0158421475622869</v>
+      </c>
+      <c r="J15">
+        <v>0.01789682201590364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.08136202115819528</v>
+        <v>-0.08987547212696929</v>
       </c>
       <c r="C16">
-        <v>-0.06973449023569024</v>
+        <v>-0.0601996377377257</v>
       </c>
       <c r="D16">
-        <v>0.03408987233212953</v>
+        <v>0.03477948007936272</v>
       </c>
       <c r="E16">
-        <v>0.01299030974676912</v>
+        <v>-0.03663849576022844</v>
       </c>
       <c r="F16">
-        <v>0.05117700254777752</v>
+        <v>0.03755044152590784</v>
       </c>
       <c r="G16">
-        <v>0.1143707229076681</v>
+        <v>-0.008062528558071266</v>
       </c>
       <c r="H16">
-        <v>-0.05734467384052866</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.111719948499745</v>
+      </c>
+      <c r="I16">
+        <v>-0.05774997151425982</v>
+      </c>
+      <c r="J16">
+        <v>0.01273292746377384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1247,16 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1279,16 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1311,240 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.05522966071914627</v>
+        <v>-0.05245076660904079</v>
       </c>
       <c r="C20">
-        <v>-0.01971976708005407</v>
+        <v>-0.02830741957382693</v>
       </c>
       <c r="D20">
-        <v>0.02097985581752517</v>
+        <v>0.03092067246527153</v>
       </c>
       <c r="E20">
-        <v>0.01703625931008776</v>
+        <v>-0.002531525590063624</v>
       </c>
       <c r="F20">
-        <v>0.009645113526301579</v>
+        <v>-0.01389521291054544</v>
       </c>
       <c r="G20">
-        <v>0.1032633361297552</v>
+        <v>-0.008705699123114821</v>
       </c>
       <c r="H20">
-        <v>-0.004964343634949065</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.04981587425489548</v>
+      </c>
+      <c r="I20">
+        <v>-0.04246576867334755</v>
+      </c>
+      <c r="J20">
+        <v>0.03450383491567727</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.02656342521585163</v>
+        <v>-0.02998704331378193</v>
       </c>
       <c r="C21">
-        <v>-0.04087488552843151</v>
+        <v>-0.01059594466891464</v>
       </c>
       <c r="D21">
-        <v>0.01681093898732148</v>
+        <v>0.009110437371389451</v>
       </c>
       <c r="E21">
-        <v>0.01479219160407585</v>
+        <v>0.03654053621750694</v>
       </c>
       <c r="F21">
-        <v>-0.07662318096777675</v>
+        <v>-0.009498180987096903</v>
       </c>
       <c r="G21">
-        <v>-0.107260596287734</v>
+        <v>0.01887486581953248</v>
       </c>
       <c r="H21">
-        <v>0.08639854710745022</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.03036421744153093</v>
+      </c>
+      <c r="I21">
+        <v>-0.06706931128279491</v>
+      </c>
+      <c r="J21">
+        <v>0.005211394898971314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>-0.04165152682252551</v>
+        <v>-0.03473053200995913</v>
       </c>
       <c r="C22">
-        <v>-0.02214942833900022</v>
+        <v>0.009744183375628015</v>
       </c>
       <c r="D22">
-        <v>0.5172471441062358</v>
+        <v>0.009404032506228125</v>
       </c>
       <c r="E22">
-        <v>-0.2259513769352449</v>
+        <v>-0.1606540233760727</v>
       </c>
       <c r="F22">
-        <v>0.1017753850583605</v>
+        <v>-0.6299550831551757</v>
       </c>
       <c r="G22">
-        <v>-0.3187382724278481</v>
+        <v>-0.0462177009431879</v>
       </c>
       <c r="H22">
-        <v>-0.1057780453100614</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.1002976918059826</v>
+      </c>
+      <c r="I22">
+        <v>0.1468324997643452</v>
+      </c>
+      <c r="J22">
+        <v>-0.03564397600688358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>-0.04178226753762044</v>
+        <v>-0.03492477834605336</v>
       </c>
       <c r="C23">
-        <v>-0.02254852067533235</v>
+        <v>0.009421337849483593</v>
       </c>
       <c r="D23">
-        <v>0.5167476621537659</v>
+        <v>0.009801580147756121</v>
       </c>
       <c r="E23">
-        <v>-0.2235316763825007</v>
+        <v>-0.1624392823740872</v>
       </c>
       <c r="F23">
-        <v>0.1030634872243239</v>
+        <v>-0.6317932078555842</v>
       </c>
       <c r="G23">
-        <v>-0.3198063775538077</v>
+        <v>-0.04609313312702176</v>
       </c>
       <c r="H23">
-        <v>-0.1049649589729511</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.1021112557818617</v>
+      </c>
+      <c r="I23">
+        <v>0.1435648912900954</v>
+      </c>
+      <c r="J23">
+        <v>-0.03443243477730118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.08457913885906429</v>
+        <v>-0.08976260565973523</v>
       </c>
       <c r="C24">
-        <v>-0.050924411591706</v>
+        <v>-0.05059838786161095</v>
       </c>
       <c r="D24">
-        <v>0.04019964215809651</v>
+        <v>0.03418771266278104</v>
       </c>
       <c r="E24">
-        <v>0.03295142910854776</v>
+        <v>-0.02292546816484048</v>
       </c>
       <c r="F24">
-        <v>0.01364804092433211</v>
+        <v>0.02941433322931028</v>
       </c>
       <c r="G24">
-        <v>0.1191824774676195</v>
+        <v>-0.01767246788777736</v>
       </c>
       <c r="H24">
-        <v>-0.02782754770648043</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.09913866916879011</v>
+      </c>
+      <c r="I24">
+        <v>-0.06166858185971619</v>
+      </c>
+      <c r="J24">
+        <v>-0.007418273698190985</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.0776707933951945</v>
+        <v>-0.09092624305672588</v>
       </c>
       <c r="C25">
-        <v>-0.02277805627850908</v>
+        <v>-0.03497540219518474</v>
       </c>
       <c r="D25">
-        <v>0.03307384125760787</v>
+        <v>0.02451126884160021</v>
       </c>
       <c r="E25">
-        <v>0.0200178770377142</v>
+        <v>-0.02383359782438217</v>
       </c>
       <c r="F25">
-        <v>-0.003049476301321134</v>
+        <v>0.05753294210754759</v>
       </c>
       <c r="G25">
-        <v>0.1164047264249077</v>
+        <v>-0.01876858940820539</v>
       </c>
       <c r="H25">
-        <v>-0.02345312081803356</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.09800176898375133</v>
+      </c>
+      <c r="I25">
+        <v>-0.0536218225154018</v>
+      </c>
+      <c r="J25">
+        <v>0.0190381782755428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.05155302353734859</v>
+        <v>-0.0395639648988221</v>
       </c>
       <c r="C26">
-        <v>-0.02363028884283135</v>
+        <v>0.01457987739641989</v>
       </c>
       <c r="D26">
-        <v>0.02124141237960635</v>
+        <v>0.02468579345298185</v>
       </c>
       <c r="E26">
-        <v>0.04912506310057478</v>
+        <v>0.00128105281905301</v>
       </c>
       <c r="F26">
-        <v>0.0407643988670997</v>
+        <v>-0.009816673226173342</v>
       </c>
       <c r="G26">
-        <v>0.05425682502736143</v>
+        <v>0.01625387277093673</v>
       </c>
       <c r="H26">
-        <v>0.07012463127030544</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.05566824490016155</v>
+      </c>
+      <c r="I26">
+        <v>-0.02986277588186952</v>
+      </c>
+      <c r="J26">
+        <v>0.04827643415186166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1567,304 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.06273343816413172</v>
+        <v>-0.08971447266514153</v>
       </c>
       <c r="C28">
-        <v>0.3049887645310838</v>
+        <v>0.3085435076588762</v>
       </c>
       <c r="D28">
-        <v>-0.009210214166704395</v>
+        <v>-0.09231885999536864</v>
       </c>
       <c r="E28">
-        <v>0.02629001673815718</v>
+        <v>-0.002563071930927111</v>
       </c>
       <c r="F28">
-        <v>-0.04976293025591262</v>
+        <v>0.01771646759519351</v>
       </c>
       <c r="G28">
-        <v>-0.01891392547315197</v>
+        <v>-0.003600248014758587</v>
       </c>
       <c r="H28">
-        <v>-0.06376755923836776</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.02675777006042408</v>
+      </c>
+      <c r="I28">
+        <v>-0.01689670097650373</v>
+      </c>
+      <c r="J28">
+        <v>-0.01977812949828487</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.06001599995814706</v>
+        <v>-0.03826410642555438</v>
       </c>
       <c r="C29">
-        <v>-0.002028546576880337</v>
+        <v>-0.007449058629856652</v>
       </c>
       <c r="D29">
-        <v>0.04906364175394742</v>
+        <v>-0.007176118488521624</v>
       </c>
       <c r="E29">
-        <v>0.0188129594453786</v>
+        <v>0.0003848931464592517</v>
       </c>
       <c r="F29">
-        <v>0.03862245620887596</v>
+        <v>0.00894348600534201</v>
       </c>
       <c r="G29">
-        <v>0.0318743370005119</v>
+        <v>-0.02789625677227893</v>
       </c>
       <c r="H29">
-        <v>0.08553716657808358</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.09131944689507276</v>
+      </c>
+      <c r="I29">
+        <v>-0.03084969943791789</v>
+      </c>
+      <c r="J29">
+        <v>0.06519673857505486</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1156206445300623</v>
+        <v>-0.1114014908995552</v>
       </c>
       <c r="C30">
-        <v>0.02421783735679807</v>
+        <v>-0.07230911609802351</v>
       </c>
       <c r="D30">
-        <v>0.2377325850373467</v>
+        <v>-0.009603527956936961</v>
       </c>
       <c r="E30">
-        <v>0.01703067351832197</v>
+        <v>-0.04315722535906432</v>
       </c>
       <c r="F30">
-        <v>-0.08124666008179224</v>
+        <v>0.01166392017060182</v>
       </c>
       <c r="G30">
-        <v>0.1578999793770512</v>
+        <v>0.02897753042832612</v>
       </c>
       <c r="H30">
-        <v>-0.03591104023839634</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.1989816270854045</v>
+      </c>
+      <c r="I30">
+        <v>-0.1064819755228315</v>
+      </c>
+      <c r="J30">
+        <v>-0.2659801586050942</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05594411603924674</v>
+        <v>-0.03833099033234225</v>
       </c>
       <c r="C31">
-        <v>-0.02215254272829217</v>
+        <v>-0.02260358176166733</v>
       </c>
       <c r="D31">
-        <v>0.002698092790631289</v>
+        <v>0.01590250778784606</v>
       </c>
       <c r="E31">
-        <v>-0.01913288096635358</v>
+        <v>-0.01495028107171177</v>
       </c>
       <c r="F31">
-        <v>0.03860518174668717</v>
+        <v>-0.000715482229425728</v>
       </c>
       <c r="G31">
-        <v>0.009247367332890147</v>
+        <v>-0.002953156849532704</v>
       </c>
       <c r="H31">
-        <v>0.02255431509126189</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.03185542937369597</v>
+      </c>
+      <c r="I31">
+        <v>-0.01634165012759524</v>
+      </c>
+      <c r="J31">
+        <v>0.06132879060913281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.03623812929167203</v>
+        <v>-0.05476428141864925</v>
       </c>
       <c r="C32">
-        <v>0.01515853911494317</v>
+        <v>-0.0001528591301471851</v>
       </c>
       <c r="D32">
-        <v>0.0852619235117663</v>
+        <v>0.02152088283008191</v>
       </c>
       <c r="E32">
-        <v>-0.04798160566253962</v>
+        <v>0.01070471551933179</v>
       </c>
       <c r="F32">
-        <v>0.1234310845699425</v>
+        <v>0.04235421969320979</v>
       </c>
       <c r="G32">
-        <v>0.02718477586960482</v>
+        <v>0.04785597073296594</v>
       </c>
       <c r="H32">
-        <v>0.007684580904856743</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.03057940993818183</v>
+      </c>
+      <c r="I32">
+        <v>-0.02615855358539973</v>
+      </c>
+      <c r="J32">
+        <v>-0.01282726582140251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.112246618098153</v>
+        <v>-0.1037695613877467</v>
       </c>
       <c r="C33">
-        <v>-0.01587812060052077</v>
+        <v>-0.0486253796274488</v>
       </c>
       <c r="D33">
-        <v>0.01041708171747268</v>
+        <v>-0.002101973875719688</v>
       </c>
       <c r="E33">
-        <v>-0.02553662356506869</v>
+        <v>-0.06753206743556844</v>
       </c>
       <c r="F33">
-        <v>0.02188402768290451</v>
+        <v>0.03259826117296399</v>
       </c>
       <c r="G33">
-        <v>0.07824116107751343</v>
+        <v>-0.005444139322239502</v>
       </c>
       <c r="H33">
-        <v>0.06158640240802535</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.04421193439685335</v>
+      </c>
+      <c r="I33">
+        <v>-0.04037039179193543</v>
+      </c>
+      <c r="J33">
+        <v>0.02249367053880818</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.06740451179264237</v>
+        <v>-0.07553922953161837</v>
       </c>
       <c r="C34">
-        <v>-0.04471310125447586</v>
+        <v>-0.04292476232241912</v>
       </c>
       <c r="D34">
-        <v>0.01092137103411229</v>
+        <v>0.03579805002626496</v>
       </c>
       <c r="E34">
-        <v>0.0008676676566713309</v>
+        <v>-0.03277821955998229</v>
       </c>
       <c r="F34">
-        <v>0.02968243205702368</v>
+        <v>0.03500885354752797</v>
       </c>
       <c r="G34">
-        <v>0.09382261226223568</v>
+        <v>-0.006132465479522455</v>
       </c>
       <c r="H34">
-        <v>-0.02197033251566467</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.1034522574554168</v>
+      </c>
+      <c r="I34">
+        <v>-0.0659431546166292</v>
+      </c>
+      <c r="J34">
+        <v>0.02061868604326512</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>-0.04373187036979678</v>
+        <v>-0.02175991425656064</v>
       </c>
       <c r="C35">
-        <v>-0.009769155442698258</v>
+        <v>-0.01381382601344259</v>
       </c>
       <c r="D35">
-        <v>0.003358918515329689</v>
+        <v>-0.006426304025565986</v>
       </c>
       <c r="E35">
-        <v>-0.01246121833115263</v>
+        <v>-0.002347925799424433</v>
       </c>
       <c r="F35">
-        <v>-0.05250858461151394</v>
+        <v>0.002448173423224862</v>
       </c>
       <c r="G35">
-        <v>0.04579276201468754</v>
+        <v>-0.006857257013009139</v>
       </c>
       <c r="H35">
-        <v>-0.0237675763465703</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.05488048024980956</v>
+      </c>
+      <c r="I35">
+        <v>-0.0137140298197694</v>
+      </c>
+      <c r="J35">
+        <v>0.04047113799895495</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.03914661035254263</v>
+        <v>-0.03177264179735705</v>
       </c>
       <c r="C36">
-        <v>-0.001286516635159227</v>
+        <v>-0.0071867787618178</v>
       </c>
       <c r="D36">
-        <v>0.04551761711194185</v>
+        <v>-0.008726526017960774</v>
       </c>
       <c r="E36">
-        <v>0.01416024582418103</v>
+        <v>-0.001489726126742762</v>
       </c>
       <c r="F36">
-        <v>0.006882053595285349</v>
+        <v>-0.01048443649080108</v>
       </c>
       <c r="G36">
-        <v>0.05129188438792409</v>
+        <v>0.009854159838950525</v>
       </c>
       <c r="H36">
-        <v>0.04262285792875517</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.04652618967998592</v>
+      </c>
+      <c r="I36">
+        <v>-0.04329938354978215</v>
+      </c>
+      <c r="J36">
+        <v>0.01994556661901282</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +1887,144 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05681831461280623</v>
+        <v>-0.02078000121152052</v>
       </c>
       <c r="C38">
-        <v>-0.01519212931435393</v>
+        <v>-0.01301579748038934</v>
       </c>
       <c r="D38">
-        <v>0.01100022239017381</v>
+        <v>0.007771904002535609</v>
       </c>
       <c r="E38">
-        <v>0.007344451922794091</v>
+        <v>-0.01598024416807899</v>
       </c>
       <c r="F38">
-        <v>0.02946317165587486</v>
+        <v>-0.01744488426162747</v>
       </c>
       <c r="G38">
-        <v>0.06017422930437696</v>
+        <v>-0.01479037181247904</v>
       </c>
       <c r="H38">
-        <v>-0.008696189751319545</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.0152667665137584</v>
+      </c>
+      <c r="I38">
+        <v>0.04070381591466909</v>
+      </c>
+      <c r="J38">
+        <v>0.002676592714843135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.1080700759230607</v>
+        <v>-0.1274650342477309</v>
       </c>
       <c r="C39">
-        <v>-0.04128550697172115</v>
+        <v>-0.0794622214533838</v>
       </c>
       <c r="D39">
-        <v>0.07371072482652148</v>
+        <v>0.0265610904372161</v>
       </c>
       <c r="E39">
-        <v>0.008292503727425224</v>
+        <v>-0.03847287062606856</v>
       </c>
       <c r="F39">
-        <v>0.01505379362624263</v>
+        <v>0.1118510962197752</v>
       </c>
       <c r="G39">
-        <v>0.1405050626320388</v>
+        <v>-0.02248540157559608</v>
       </c>
       <c r="H39">
-        <v>-0.1143829095838361</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.1329021704146231</v>
+      </c>
+      <c r="I39">
+        <v>-0.03305083922901519</v>
+      </c>
+      <c r="J39">
+        <v>0.008128672426130462</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.05132320963264081</v>
+        <v>-0.01681919770972536</v>
       </c>
       <c r="C40">
-        <v>-0.02403909376256435</v>
+        <v>-0.02339844923435364</v>
       </c>
       <c r="D40">
-        <v>0.09250223742907589</v>
+        <v>0.01931475677443462</v>
       </c>
       <c r="E40">
-        <v>-0.0279644817349101</v>
+        <v>-0.00344847990065934</v>
       </c>
       <c r="F40">
-        <v>-0.03555965216065016</v>
+        <v>-0.06970099289281899</v>
       </c>
       <c r="G40">
-        <v>0.2778784528552694</v>
+        <v>-0.007478615666464158</v>
       </c>
       <c r="H40">
-        <v>-0.08020835408214873</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.07264960350654411</v>
+      </c>
+      <c r="I40">
+        <v>-0.08509574734687858</v>
+      </c>
+      <c r="J40">
+        <v>-0.02920340576089425</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.04885070867929954</v>
+        <v>-0.02910289524790525</v>
       </c>
       <c r="C41">
-        <v>-0.02849683515723857</v>
+        <v>-0.002694081362758003</v>
       </c>
       <c r="D41">
-        <v>-0.0144201156382911</v>
+        <v>0.03141384433860446</v>
       </c>
       <c r="E41">
-        <v>0.010244021387445</v>
+        <v>-0.004725656000449586</v>
       </c>
       <c r="F41">
-        <v>0.03334523514900133</v>
+        <v>0.01287002480595142</v>
       </c>
       <c r="G41">
-        <v>0.05799721663078324</v>
+        <v>-0.01246621702499841</v>
       </c>
       <c r="H41">
-        <v>-0.02804921984265394</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.02143430904752629</v>
+      </c>
+      <c r="I41">
+        <v>-0.007506813714755586</v>
+      </c>
+      <c r="J41">
+        <v>0.03688933185382851</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2047,80 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.07622629549983792</v>
+        <v>-0.04531514284012449</v>
       </c>
       <c r="C43">
-        <v>-0.02583723896266815</v>
+        <v>-0.004685940590022449</v>
       </c>
       <c r="D43">
-        <v>0.02668476451624413</v>
+        <v>0.033018047191927</v>
       </c>
       <c r="E43">
-        <v>0.008071258100536223</v>
+        <v>-0.03115998344369374</v>
       </c>
       <c r="F43">
-        <v>0.02929326077526517</v>
+        <v>0.00112149862274644</v>
       </c>
       <c r="G43">
-        <v>0.002484624518483046</v>
+        <v>-0.00734721406976659</v>
       </c>
       <c r="H43">
-        <v>-0.02057581155698611</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.04139342597766151</v>
+      </c>
+      <c r="I43">
+        <v>0.01465805313042326</v>
+      </c>
+      <c r="J43">
+        <v>0.05000708794049118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.07903806615720368</v>
+        <v>-0.1196461155080859</v>
       </c>
       <c r="C44">
-        <v>-0.01093394610921959</v>
+        <v>-0.09458775612869927</v>
       </c>
       <c r="D44">
-        <v>0.07232648207461026</v>
+        <v>-0.004953758958610212</v>
       </c>
       <c r="E44">
-        <v>0.08902578811042416</v>
+        <v>-0.04334212216301529</v>
       </c>
       <c r="F44">
-        <v>0.08636951425026369</v>
+        <v>-0.0848329550382266</v>
       </c>
       <c r="G44">
-        <v>0.076289480777958</v>
+        <v>-0.09189972826393734</v>
       </c>
       <c r="H44">
-        <v>-0.003077144765915688</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.2204968117951847</v>
+      </c>
+      <c r="I44">
+        <v>-0.0963553264636719</v>
+      </c>
+      <c r="J44">
+        <v>-0.1154430454332387</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2143,368 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.05122890543350457</v>
+        <v>-0.02619424664162964</v>
       </c>
       <c r="C46">
-        <v>-0.03993534517781202</v>
+        <v>0.003006722683723428</v>
       </c>
       <c r="D46">
-        <v>0.05023461004708998</v>
+        <v>0.02190076565156951</v>
       </c>
       <c r="E46">
-        <v>0.0005378266989617616</v>
+        <v>-0.02928968396358157</v>
       </c>
       <c r="F46">
-        <v>0.02712327222583489</v>
+        <v>-0.03263991122796842</v>
       </c>
       <c r="G46">
-        <v>0.02067828056336848</v>
+        <v>-0.02033012024674263</v>
       </c>
       <c r="H46">
-        <v>0.07864147925878645</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.05897954729671357</v>
+      </c>
+      <c r="I46">
+        <v>-0.01598531535247375</v>
+      </c>
+      <c r="J46">
+        <v>0.05810607898182815</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.04960779450043304</v>
+        <v>-0.04179998203446821</v>
       </c>
       <c r="C47">
-        <v>-0.0008353956212535563</v>
+        <v>-0.003425745046714975</v>
       </c>
       <c r="D47">
-        <v>0.06108316641525983</v>
+        <v>0.009939645848044069</v>
       </c>
       <c r="E47">
-        <v>-0.0294556527976294</v>
+        <v>-0.007546876983032066</v>
       </c>
       <c r="F47">
-        <v>-0.0002969675536057887</v>
+        <v>-0.01333317298080946</v>
       </c>
       <c r="G47">
-        <v>-0.001526136661267214</v>
+        <v>0.005052455918531163</v>
       </c>
       <c r="H47">
-        <v>0.02946337546283407</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.05297767361207207</v>
+      </c>
+      <c r="I47">
+        <v>-0.009826148160732363</v>
+      </c>
+      <c r="J47">
+        <v>0.05002760937131857</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.0444784086037345</v>
+        <v>-0.03794433053918714</v>
       </c>
       <c r="C48">
-        <v>-0.001109655559276966</v>
+        <v>-0.001308802304943688</v>
       </c>
       <c r="D48">
-        <v>0.03585456334214043</v>
+        <v>-0.01183491920436676</v>
       </c>
       <c r="E48">
-        <v>-0.0341771630915417</v>
+        <v>-0.005291672268047377</v>
       </c>
       <c r="F48">
-        <v>-0.0088873452383292</v>
+        <v>-0.003601996264732222</v>
       </c>
       <c r="G48">
-        <v>0.04890856279081676</v>
+        <v>0.01232791354070031</v>
       </c>
       <c r="H48">
-        <v>0.01007721320644956</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.05083034295371365</v>
+      </c>
+      <c r="I48">
+        <v>-0.04022808544264683</v>
+      </c>
+      <c r="J48">
+        <v>0.03195631435310169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>-0.2364630430166781</v>
+        <v>-0.2334312633325383</v>
       </c>
       <c r="C49">
-        <v>-0.06701429389413868</v>
+        <v>-0.0227255492781099</v>
       </c>
       <c r="D49">
-        <v>-0.08733245342612633</v>
+        <v>0.06740804335505518</v>
       </c>
       <c r="E49">
-        <v>0.05007963486311384</v>
+        <v>0.02548173385851366</v>
       </c>
       <c r="F49">
-        <v>-0.1178350820403371</v>
+        <v>0.03882669848211483</v>
       </c>
       <c r="G49">
-        <v>-0.1085248746125797</v>
+        <v>-0.05820172480562943</v>
       </c>
       <c r="H49">
-        <v>-0.1033017005688032</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.1957241795396813</v>
+      </c>
+      <c r="I49">
+        <v>0.134849779881444</v>
+      </c>
+      <c r="J49">
+        <v>-0.2103572008496537</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.05599034936754841</v>
+        <v>-0.04329937699063548</v>
       </c>
       <c r="C50">
-        <v>-0.01463482646880626</v>
+        <v>-0.01241080316845319</v>
       </c>
       <c r="D50">
-        <v>0.01332187437237383</v>
+        <v>0.02506364322415348</v>
       </c>
       <c r="E50">
-        <v>-0.02654478021176288</v>
+        <v>-0.007087299333514648</v>
       </c>
       <c r="F50">
-        <v>0.04567105248995391</v>
+        <v>0.0007104186876022344</v>
       </c>
       <c r="G50">
-        <v>0.002215619067878054</v>
+        <v>0.001455105194249565</v>
       </c>
       <c r="H50">
-        <v>0.05579884850083548</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.05590908643656971</v>
+      </c>
+      <c r="I50">
+        <v>-0.01886581909373071</v>
+      </c>
+      <c r="J50">
+        <v>0.03233491331358135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.03788427913088921</v>
+        <v>-0.01817191529101099</v>
       </c>
       <c r="C51">
-        <v>-0.007787341226695167</v>
+        <v>0.006432240155579494</v>
       </c>
       <c r="D51">
-        <v>-0.002461862939069027</v>
+        <v>0.001074428626188599</v>
       </c>
       <c r="E51">
-        <v>0.02114765850919742</v>
+        <v>-0.0171564176733783</v>
       </c>
       <c r="F51">
-        <v>0.02226384598824396</v>
+        <v>-0.003305422154797838</v>
       </c>
       <c r="G51">
-        <v>-0.01933046406238957</v>
+        <v>-0.02311765106570042</v>
       </c>
       <c r="H51">
-        <v>-0.034266227013028</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.02334433911736824</v>
+      </c>
+      <c r="I51">
+        <v>0.00301070027509903</v>
+      </c>
+      <c r="J51">
+        <v>-0.009534707160849674</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.08005033827553444</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.05003911994765909</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.02163105297612651</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.02009387236439629</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.01224076856115129</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.007537338647477011</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-0.04896486585911031</v>
+      </c>
+      <c r="I52">
+        <v>0.03754600054285321</v>
+      </c>
+      <c r="J52">
+        <v>0.1049849624225667</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1632741283134246</v>
+        <v>-0.1626731870603316</v>
       </c>
       <c r="C53">
-        <v>0.008922743044924252</v>
+        <v>-0.02654106004792331</v>
       </c>
       <c r="D53">
-        <v>-0.0823264621042042</v>
+        <v>-0.01139717732712705</v>
       </c>
       <c r="E53">
-        <v>-0.0675123239823313</v>
+        <v>0.002155638433894349</v>
       </c>
       <c r="F53">
-        <v>0.2079115007939665</v>
+        <v>-0.002395229729383647</v>
       </c>
       <c r="G53">
-        <v>-0.03702615896033147</v>
+        <v>-0.007415182411488881</v>
       </c>
       <c r="H53">
-        <v>0.04596630143610964</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>-0.005899851762881167</v>
+      </c>
+      <c r="I53">
+        <v>0.104744204055344</v>
+      </c>
+      <c r="J53">
+        <v>0.197217128215421</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.05476730093257975</v>
+        <v>-0.05172376693353507</v>
       </c>
       <c r="C54">
-        <v>-0.008403049019234074</v>
+        <v>-0.01413140657454812</v>
       </c>
       <c r="D54">
-        <v>0.04490282486999499</v>
+        <v>0.01234280927135143</v>
       </c>
       <c r="E54">
-        <v>0.01161564682762579</v>
+        <v>-0.01043550055283075</v>
       </c>
       <c r="F54">
-        <v>0.02214722488134053</v>
+        <v>-0.02638722706680759</v>
       </c>
       <c r="G54">
-        <v>0.05504360003139712</v>
+        <v>0.0008219427483236157</v>
       </c>
       <c r="H54">
-        <v>0.09597051615331641</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.0716254158910833</v>
+      </c>
+      <c r="I54">
+        <v>-0.1174354185588754</v>
+      </c>
+      <c r="J54">
+        <v>0.06713270858324535</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09640392901758693</v>
+        <v>-0.08784281231499326</v>
       </c>
       <c r="C55">
-        <v>-0.00564441755596645</v>
+        <v>-0.02388517343769934</v>
       </c>
       <c r="D55">
-        <v>-0.02034813646746412</v>
+        <v>-0.02106057305593464</v>
       </c>
       <c r="E55">
-        <v>-0.03703142315305217</v>
+        <v>-0.0407025436394037</v>
       </c>
       <c r="F55">
-        <v>0.163013592622085</v>
+        <v>0.02543363609068311</v>
       </c>
       <c r="G55">
-        <v>0.0053745686639143</v>
+        <v>-0.01142935748391138</v>
       </c>
       <c r="H55">
-        <v>0.06938789930235503</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.01898138224651766</v>
+      </c>
+      <c r="I55">
+        <v>0.02462030552402522</v>
+      </c>
+      <c r="J55">
+        <v>0.142400373576964</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.163962866850599</v>
+        <v>-0.1607254624524096</v>
       </c>
       <c r="C56">
-        <v>0.00821850724085316</v>
+        <v>-0.0324791749706481</v>
       </c>
       <c r="D56">
-        <v>-0.08792019478528577</v>
+        <v>0.007298184055183461</v>
       </c>
       <c r="E56">
-        <v>-0.0980552807235002</v>
+        <v>-0.02203369666447995</v>
       </c>
       <c r="F56">
-        <v>0.2032732963038215</v>
+        <v>0.02345574294194319</v>
       </c>
       <c r="G56">
-        <v>-0.02127273644037277</v>
+        <v>-0.02299914017801072</v>
       </c>
       <c r="H56">
-        <v>0.05439275173052915</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.05081783252271806</v>
+      </c>
+      <c r="I56">
+        <v>0.08156824352214685</v>
+      </c>
+      <c r="J56">
+        <v>0.1591736081808865</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2527,1424 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.01853912015339408</v>
+        <v>-0.03763656475019447</v>
       </c>
       <c r="C58">
-        <v>-0.08200536076106775</v>
+        <v>-0.0152389349069179</v>
       </c>
       <c r="D58">
-        <v>0.2433145218971231</v>
+        <v>0.0175020380921989</v>
       </c>
       <c r="E58">
-        <v>-0.03263057677312851</v>
+        <v>-0.01455671713499913</v>
       </c>
       <c r="F58">
-        <v>-0.3763676300542533</v>
+        <v>-0.08717993634651468</v>
       </c>
       <c r="G58">
-        <v>0.1111752903885038</v>
+        <v>0.01694133489118747</v>
       </c>
       <c r="H58">
-        <v>-0.1154287842624741</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.09159950186599412</v>
+      </c>
+      <c r="I58">
+        <v>0.0170392116103064</v>
+      </c>
+      <c r="J58">
+        <v>0.01006958526107591</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.1521752805391564</v>
+        <v>-0.1686562438152335</v>
       </c>
       <c r="C59">
-        <v>0.385578089160225</v>
+        <v>0.2842387864546386</v>
       </c>
       <c r="D59">
-        <v>-0.04807972774685201</v>
+        <v>-0.08586179962286675</v>
       </c>
       <c r="E59">
-        <v>0.06086029257199632</v>
+        <v>-0.01815166600421116</v>
       </c>
       <c r="F59">
-        <v>0.04489965735861674</v>
+        <v>0.0590957495572839</v>
       </c>
       <c r="G59">
-        <v>0.01799101681206706</v>
+        <v>-0.04128482904269847</v>
       </c>
       <c r="H59">
-        <v>-0.03785196703753886</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.01970037972348956</v>
+      </c>
+      <c r="I59">
+        <v>-0.03639148831276423</v>
+      </c>
+      <c r="J59">
+        <v>0.02828137689866746</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.274970496997786</v>
+        <v>-0.2804363203059289</v>
       </c>
       <c r="C60">
-        <v>-0.05351040282269565</v>
+        <v>-0.1261773367749495</v>
       </c>
       <c r="D60">
-        <v>-0.05854878672047401</v>
+        <v>0.01309778987968888</v>
       </c>
       <c r="E60">
-        <v>0.05056464134843902</v>
+        <v>0.06377538920322981</v>
       </c>
       <c r="F60">
-        <v>-0.06957320415917034</v>
+        <v>0.0324751108351456</v>
       </c>
       <c r="G60">
-        <v>-0.1435028929235408</v>
+        <v>-0.1400405497151085</v>
       </c>
       <c r="H60">
-        <v>-0.04833417426712566</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.0750335735486104</v>
+      </c>
+      <c r="I60">
+        <v>0.1681184317699686</v>
+      </c>
+      <c r="J60">
+        <v>-0.3260012253991861</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.09551650291570778</v>
+        <v>-0.1131073616920181</v>
       </c>
       <c r="C61">
-        <v>-0.02187553645822617</v>
+        <v>-0.05610146851821779</v>
       </c>
       <c r="D61">
-        <v>0.02477195260820917</v>
+        <v>-0.007553485164808207</v>
       </c>
       <c r="E61">
-        <v>0.007789818691938863</v>
+        <v>-0.02242563110961224</v>
       </c>
       <c r="F61">
-        <v>0.03196931294697991</v>
+        <v>0.06449167046519926</v>
       </c>
       <c r="G61">
-        <v>0.05711117616487773</v>
+        <v>-0.03750596452774373</v>
       </c>
       <c r="H61">
-        <v>-0.04926183560065781</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.1278708525946997</v>
+      </c>
+      <c r="I61">
+        <v>-0.07130302348490901</v>
+      </c>
+      <c r="J61">
+        <v>0.06716357127048368</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>-0.1444318060668573</v>
+        <v>-0.1553250928187356</v>
       </c>
       <c r="C62">
-        <v>-0.02239704342397005</v>
+        <v>-0.03490569020726186</v>
       </c>
       <c r="D62">
-        <v>-0.142623765549387</v>
+        <v>0.003887085181192895</v>
       </c>
       <c r="E62">
-        <v>-0.08838624599266684</v>
+        <v>-0.01279837360180872</v>
       </c>
       <c r="F62">
-        <v>0.1668664583681483</v>
+        <v>0.02691766605047128</v>
       </c>
       <c r="G62">
-        <v>-0.00123781708037272</v>
+        <v>-0.005021994360690278</v>
       </c>
       <c r="H62">
-        <v>0.0669816084880793</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.009314979045002156</v>
+      </c>
+      <c r="I62">
+        <v>0.09382128643391771</v>
+      </c>
+      <c r="J62">
+        <v>0.1474332566245277</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.04320076416818289</v>
+        <v>-0.04236607794364916</v>
       </c>
       <c r="C63">
-        <v>-0.01921241304318934</v>
+        <v>-0.00582816871668214</v>
       </c>
       <c r="D63">
-        <v>0.009177796274340285</v>
+        <v>-0.00738571668509022</v>
       </c>
       <c r="E63">
-        <v>-0.01533972728635862</v>
+        <v>-0.01656079157094062</v>
       </c>
       <c r="F63">
-        <v>0.01078885550571722</v>
+        <v>0.005219884095546962</v>
       </c>
       <c r="G63">
-        <v>0.04189188732320676</v>
+        <v>0.03676955310313856</v>
       </c>
       <c r="H63">
-        <v>0.0968772013530851</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.04620979141160688</v>
+      </c>
+      <c r="I63">
+        <v>-0.04496127284351335</v>
+      </c>
+      <c r="J63">
+        <v>0.03673647423725081</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.1109416201041247</v>
+        <v>-0.0992905196378053</v>
       </c>
       <c r="C64">
-        <v>-0.01230510688250588</v>
+        <v>-0.01830827184188497</v>
       </c>
       <c r="D64">
-        <v>0.05305892573225045</v>
+        <v>0.01351453937363605</v>
       </c>
       <c r="E64">
-        <v>0.03590629136486152</v>
+        <v>0.00172974463948812</v>
       </c>
       <c r="F64">
-        <v>0.002104973448717063</v>
+        <v>-0.007856474795455143</v>
       </c>
       <c r="G64">
-        <v>0.04972093448429535</v>
+        <v>-0.05396921737620679</v>
       </c>
       <c r="H64">
-        <v>-0.0002306387236882821</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.05747863429706081</v>
+      </c>
+      <c r="I64">
+        <v>-0.04608866293369629</v>
+      </c>
+      <c r="J64">
+        <v>-0.0564485758622274</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>-0.1164841123556585</v>
+        <v>-0.1192606027600033</v>
       </c>
       <c r="C65">
-        <v>-0.02519627369594855</v>
+        <v>-0.008984167485291012</v>
       </c>
       <c r="D65">
-        <v>0.06432629187099227</v>
+        <v>-0.02084283834223674</v>
       </c>
       <c r="E65">
-        <v>0.004464914176451977</v>
+        <v>0.01148559372951112</v>
       </c>
       <c r="F65">
-        <v>-0.3207536778859823</v>
+        <v>-0.001511010724172158</v>
       </c>
       <c r="G65">
-        <v>-0.1265845553396455</v>
+        <v>0.06668418865467825</v>
       </c>
       <c r="H65">
-        <v>0.6523934001145278</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.02741677459441715</v>
+      </c>
+      <c r="I65">
+        <v>-0.04370311236552706</v>
+      </c>
+      <c r="J65">
+        <v>-0.2387686610924285</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.1558941968143364</v>
+        <v>-0.1564072534952422</v>
       </c>
       <c r="C66">
-        <v>-0.05063238077406664</v>
+        <v>-0.1028876822324656</v>
       </c>
       <c r="D66">
-        <v>0.03231092344678019</v>
+        <v>0.04383935570137003</v>
       </c>
       <c r="E66">
-        <v>0.06040465466353061</v>
+        <v>-0.04482308298953062</v>
       </c>
       <c r="F66">
-        <v>0.04989390667431818</v>
+        <v>0.1258375041934528</v>
       </c>
       <c r="G66">
-        <v>0.2643186580590659</v>
+        <v>-0.03687893972425201</v>
       </c>
       <c r="H66">
-        <v>-0.2066252786954138</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.1413301887167093</v>
+      </c>
+      <c r="I66">
+        <v>-0.02161301315012059</v>
+      </c>
+      <c r="J66">
+        <v>-0.0003517964234361142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.1098228729016692</v>
+        <v>-0.07999664862529758</v>
       </c>
       <c r="C67">
-        <v>-0.03477409245432243</v>
+        <v>-0.04449151371663987</v>
       </c>
       <c r="D67">
-        <v>-0.009510123089246635</v>
+        <v>-0.01697505335170859</v>
       </c>
       <c r="E67">
-        <v>0.03561155890415205</v>
+        <v>-0.07425810118848195</v>
       </c>
       <c r="F67">
-        <v>0.05655388757255687</v>
+        <v>0.002762635536190541</v>
       </c>
       <c r="G67">
-        <v>0.03911741821423975</v>
+        <v>-0.02864298517001701</v>
       </c>
       <c r="H67">
-        <v>-0.01735422971719191</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.06501904626288713</v>
+      </c>
+      <c r="I67">
+        <v>-0.004059250258243154</v>
+      </c>
+      <c r="J67">
+        <v>-0.02454516820505558</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.03845734835813308</v>
+        <v>-0.07688899836655942</v>
       </c>
       <c r="C68">
-        <v>0.2925603693614437</v>
+        <v>0.2762468232602149</v>
       </c>
       <c r="D68">
-        <v>-0.00437841807832221</v>
+        <v>-0.0859919166203414</v>
       </c>
       <c r="E68">
-        <v>-0.02126839849075015</v>
+        <v>0.0002847104139058619</v>
       </c>
       <c r="F68">
-        <v>-0.0124759644549258</v>
+        <v>0.02578576161919811</v>
       </c>
       <c r="G68">
-        <v>-0.018857663866465</v>
+        <v>0.01947915176699598</v>
       </c>
       <c r="H68">
-        <v>0.0279512309064502</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.04229017910348486</v>
+      </c>
+      <c r="I68">
+        <v>-0.03505526764414322</v>
+      </c>
+      <c r="J68">
+        <v>-0.01520013297397299</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.05088604763027965</v>
+        <v>-0.03910858372223361</v>
       </c>
       <c r="C69">
-        <v>-0.01105958834602215</v>
+        <v>-0.004647333217733785</v>
       </c>
       <c r="D69">
-        <v>-0.01009910703532533</v>
+        <v>-0.01303889838752695</v>
       </c>
       <c r="E69">
-        <v>-0.03287114561004927</v>
+        <v>-0.02168141737756186</v>
       </c>
       <c r="F69">
-        <v>-0.01393775859675739</v>
+        <v>0.0003756556552740106</v>
       </c>
       <c r="G69">
-        <v>0.02193589998515151</v>
+        <v>-0.002867825198235252</v>
       </c>
       <c r="H69">
-        <v>0.01935314857599062</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.01889620546021431</v>
+      </c>
+      <c r="I69">
+        <v>0.01479743359646674</v>
+      </c>
+      <c r="J69">
+        <v>0.02004753415638644</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70">
-        <v>-0.08078538014986311</v>
+        <v>-0.04331318294451361</v>
       </c>
       <c r="C70">
-        <v>-0.01294084055947941</v>
+        <v>-0.004199935093002548</v>
       </c>
       <c r="D70">
-        <v>-0.008585223112148358</v>
+        <v>-0.02542038397580371</v>
       </c>
       <c r="E70">
-        <v>0.06260116068048165</v>
+        <v>-0.0146618561734111</v>
       </c>
       <c r="F70">
-        <v>0.002253330980170228</v>
+        <v>0.02383106184929442</v>
       </c>
       <c r="G70">
-        <v>-0.04258460778727035</v>
+        <v>-0.03950626339587208</v>
       </c>
       <c r="H70">
-        <v>-0.02146235697127935</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.001123525144679475</v>
+      </c>
+      <c r="I70">
+        <v>-0.01932526287711159</v>
+      </c>
+      <c r="J70">
+        <v>0.03295504749043557</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.05031944649355395</v>
+        <v>-0.09000659082704959</v>
       </c>
       <c r="C71">
-        <v>0.3002194137654049</v>
+        <v>0.2896678049102492</v>
       </c>
       <c r="D71">
-        <v>0.003821776156660486</v>
+        <v>-0.09050477376557804</v>
       </c>
       <c r="E71">
-        <v>0.001951587965918663</v>
+        <v>-0.003844633081845221</v>
       </c>
       <c r="F71">
-        <v>-0.01087411897712739</v>
+        <v>0.01690782975656748</v>
       </c>
       <c r="G71">
-        <v>0.007127158138254128</v>
+        <v>-0.01008233113031426</v>
       </c>
       <c r="H71">
-        <v>0.00618603043531919</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.05122814049508948</v>
+      </c>
+      <c r="I71">
+        <v>-0.02969296287279534</v>
+      </c>
+      <c r="J71">
+        <v>-0.03372025310375378</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1334478304189077</v>
+        <v>-0.1398380715757026</v>
       </c>
       <c r="C72">
-        <v>0.01928032070145307</v>
+        <v>0.01836431911151113</v>
       </c>
       <c r="D72">
-        <v>-0.07936657706787918</v>
+        <v>0.0106453366432294</v>
       </c>
       <c r="E72">
-        <v>-0.1139913814424328</v>
+        <v>-0.0122355101895509</v>
       </c>
       <c r="F72">
-        <v>-0.04844300410004593</v>
+        <v>0.01868118219845939</v>
       </c>
       <c r="G72">
-        <v>0.09471709176397397</v>
+        <v>0.04535289655099808</v>
       </c>
       <c r="H72">
-        <v>0.1120248207289312</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.002851819468873696</v>
+      </c>
+      <c r="I72">
+        <v>0.004272087065114656</v>
+      </c>
+      <c r="J72">
+        <v>0.01137157960494569</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.284669735970382</v>
+        <v>-0.2454054361222046</v>
       </c>
       <c r="C73">
-        <v>-0.1471697136389919</v>
+        <v>-0.07752044924162634</v>
       </c>
       <c r="D73">
-        <v>-0.1337738386567639</v>
+        <v>0.04995545552642777</v>
       </c>
       <c r="E73">
-        <v>0.1028311074285639</v>
+        <v>-0.03645959360289892</v>
       </c>
       <c r="F73">
-        <v>-0.3128712861887541</v>
+        <v>0.08885824924461504</v>
       </c>
       <c r="G73">
-        <v>-0.2851006311118394</v>
+        <v>-0.16228419007169</v>
       </c>
       <c r="H73">
-        <v>-0.1914564421635524</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.3132276708702752</v>
+      </c>
+      <c r="I73">
+        <v>0.2460317120066751</v>
+      </c>
+      <c r="J73">
+        <v>-0.2652626863739842</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1008081817087833</v>
+        <v>-0.1112365895818657</v>
       </c>
       <c r="C74">
-        <v>-0.03133128081641599</v>
+        <v>-0.03211606847307948</v>
       </c>
       <c r="D74">
-        <v>-0.03184622233620546</v>
+        <v>0.02515324969398786</v>
       </c>
       <c r="E74">
-        <v>-0.02948776794717076</v>
+        <v>-0.02857169858215189</v>
       </c>
       <c r="F74">
-        <v>0.10471065137771</v>
+        <v>0.005744387457099152</v>
       </c>
       <c r="G74">
-        <v>-0.04008671686540055</v>
+        <v>-0.005287551582760725</v>
       </c>
       <c r="H74">
-        <v>0.03248623861888325</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>-0.05561468928434529</v>
+      </c>
+      <c r="I74">
+        <v>0.1108595907808626</v>
+      </c>
+      <c r="J74">
+        <v>0.1165217769713063</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.09405498524251417</v>
+        <v>-0.1164979393915018</v>
       </c>
       <c r="C75">
-        <v>-0.01802110580621533</v>
+        <v>-0.03885993452573375</v>
       </c>
       <c r="D75">
-        <v>-0.05517866223634216</v>
+        <v>0.01886011979626715</v>
       </c>
       <c r="E75">
-        <v>-0.07511871557033409</v>
+        <v>-0.01743583903940298</v>
       </c>
       <c r="F75">
-        <v>0.08258698849378214</v>
+        <v>0.008701051165455925</v>
       </c>
       <c r="G75">
-        <v>-0.04758362708728486</v>
+        <v>0.02329336322038888</v>
       </c>
       <c r="H75">
-        <v>0.01805532589506345</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.001571793419209901</v>
+      </c>
+      <c r="I75">
+        <v>0.05251530908034956</v>
+      </c>
+      <c r="J75">
+        <v>0.1307435775712784</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.1405635637807731</v>
+        <v>-0.05083408481363456</v>
       </c>
       <c r="C76">
-        <v>-0.02232998900707949</v>
+        <v>-0.00570547293549255</v>
       </c>
       <c r="D76">
-        <v>-0.02444089999025737</v>
+        <v>0.008174405233541345</v>
       </c>
       <c r="E76">
-        <v>-0.07135727412768947</v>
+        <v>-0.03578907191521785</v>
       </c>
       <c r="F76">
-        <v>0.2378955476163059</v>
+        <v>-0.003154071476945573</v>
       </c>
       <c r="G76">
-        <v>-0.08679543218934339</v>
+        <v>-0.02974791453132923</v>
       </c>
       <c r="H76">
-        <v>0.04735021724435268</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.03933248050139298</v>
+      </c>
+      <c r="I76">
+        <v>0.04342172042210896</v>
+      </c>
+      <c r="J76">
+        <v>0.1029162654342352</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.08402743447894681</v>
+        <v>-0.07946107342103916</v>
       </c>
       <c r="C77">
-        <v>0.008989116764721996</v>
+        <v>-0.07860418060509161</v>
       </c>
       <c r="D77">
-        <v>0.1310774723064962</v>
+        <v>0.01352639879884848</v>
       </c>
       <c r="E77">
-        <v>0.1220243567486265</v>
+        <v>0.005556108421796357</v>
       </c>
       <c r="F77">
-        <v>-0.2125387104048578</v>
+        <v>-0.01308378217844119</v>
       </c>
       <c r="G77">
-        <v>0.1508321034079237</v>
+        <v>-0.05812438848186667</v>
       </c>
       <c r="H77">
-        <v>-0.1171989629428363</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.1002898338766464</v>
+      </c>
+      <c r="I77">
+        <v>-0.2699478844972465</v>
+      </c>
+      <c r="J77">
+        <v>-0.32285144394496</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.2231788296986341</v>
+        <v>-0.1512925865481402</v>
       </c>
       <c r="C78">
-        <v>-0.05294088173053826</v>
+        <v>-0.03696129001247438</v>
       </c>
       <c r="D78">
-        <v>0.2069542894053849</v>
+        <v>0.127964968738232</v>
       </c>
       <c r="E78">
-        <v>0.05553707754341431</v>
+        <v>-0.2016957958081665</v>
       </c>
       <c r="F78">
-        <v>-0.007245491375978697</v>
+        <v>-0.1908631677282449</v>
       </c>
       <c r="G78">
-        <v>0.1490886643801728</v>
+        <v>0.1085134408059891</v>
       </c>
       <c r="H78">
-        <v>0.08328293460671364</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.5754568868540362</v>
+      </c>
+      <c r="I78">
+        <v>-0.6212608112924495</v>
+      </c>
+      <c r="J78">
+        <v>0.1823106229016524</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>-0.1378525112938169</v>
+        <v>-0.1343639359488969</v>
       </c>
       <c r="C79">
-        <v>-0.007186879522302967</v>
+        <v>-0.02502426331499809</v>
       </c>
       <c r="D79">
-        <v>-0.03311981187628568</v>
+        <v>0.04762820739614035</v>
       </c>
       <c r="E79">
-        <v>-0.05203421038504384</v>
+        <v>-0.01232047957764327</v>
       </c>
       <c r="F79">
-        <v>0.1313023508149827</v>
+        <v>0.01209545083661396</v>
       </c>
       <c r="G79">
-        <v>0.007082942220948031</v>
+        <v>-0.009920842370162065</v>
       </c>
       <c r="H79">
-        <v>0.05775630579146136</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.04265033637492134</v>
+      </c>
+      <c r="I79">
+        <v>0.05624357621240739</v>
+      </c>
+      <c r="J79">
+        <v>0.1041966752345982</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.03543173511132099</v>
+        <v>-0.07094989945941851</v>
       </c>
       <c r="C80">
-        <v>-0.005961213640978239</v>
+        <v>-0.05787627875212209</v>
       </c>
       <c r="D80">
-        <v>-0.02545643027626978</v>
+        <v>-0.01298723845912198</v>
       </c>
       <c r="E80">
-        <v>0.05628471747998449</v>
+        <v>-0.01976783734261597</v>
       </c>
       <c r="F80">
-        <v>-0.01626259084885568</v>
+        <v>0.05219401278926272</v>
       </c>
       <c r="G80">
-        <v>0.05838398553417009</v>
+        <v>0.002841688152135658</v>
       </c>
       <c r="H80">
-        <v>0.1141364532609032</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.02391946872434537</v>
+      </c>
+      <c r="I80">
+        <v>-0.06010712151597521</v>
+      </c>
+      <c r="J80">
+        <v>0.1888427035598298</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1139404996728432</v>
+        <v>-0.1355848089143097</v>
       </c>
       <c r="C81">
-        <v>0.0006358019572924849</v>
+        <v>-0.03552166658876382</v>
       </c>
       <c r="D81">
-        <v>-0.02061815003744752</v>
+        <v>0.03021226678725341</v>
       </c>
       <c r="E81">
-        <v>-0.02580129863696731</v>
+        <v>-0.01881697844426783</v>
       </c>
       <c r="F81">
-        <v>0.1244142871706654</v>
+        <v>0.002708888636668802</v>
       </c>
       <c r="G81">
-        <v>-0.02918327061706927</v>
+        <v>-0.009047105983124746</v>
       </c>
       <c r="H81">
-        <v>-0.004076018324206626</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>-0.05810662552487648</v>
+      </c>
+      <c r="I81">
+        <v>0.05563145239225396</v>
+      </c>
+      <c r="J81">
+        <v>0.150746558549517</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>-0.1110572953574487</v>
+        <v>-0.1515039338390524</v>
       </c>
       <c r="C82">
-        <v>-0.01848770683379209</v>
+        <v>-0.0440586824349171</v>
       </c>
       <c r="D82">
-        <v>-0.05936364741337814</v>
+        <v>-0.005416388922555148</v>
       </c>
       <c r="E82">
-        <v>0.02252090094355557</v>
+        <v>-0.007133613097770163</v>
       </c>
       <c r="F82">
-        <v>0.2593881631319794</v>
+        <v>0.03900590664935367</v>
       </c>
       <c r="G82">
-        <v>-0.01714290102717276</v>
+        <v>-0.03944058011752023</v>
       </c>
       <c r="H82">
-        <v>0.03564745437458965</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.04551044214891291</v>
+      </c>
+      <c r="I82">
+        <v>0.136657013917251</v>
+      </c>
+      <c r="J82">
+        <v>0.2186309786280811</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.1120207761677967</v>
+        <v>-0.08939430127859227</v>
       </c>
       <c r="C83">
-        <v>-0.04474508379753114</v>
+        <v>-0.06116772536662168</v>
       </c>
       <c r="D83">
-        <v>-0.001410400917474879</v>
+        <v>0.003841153159235318</v>
       </c>
       <c r="E83">
-        <v>0.09802091595336061</v>
+        <v>0.0318259959515022</v>
       </c>
       <c r="F83">
-        <v>-0.02896444713081603</v>
+        <v>-0.03004621271815391</v>
       </c>
       <c r="G83">
-        <v>0.04921546475919528</v>
+        <v>0.009036004205598903</v>
       </c>
       <c r="H83">
-        <v>-0.07916906259295464</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.05215989710198661</v>
+      </c>
+      <c r="I83">
+        <v>-0.07121173836579475</v>
+      </c>
+      <c r="J83">
+        <v>0.08754765245993927</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>-0.05036606628641412</v>
+        <v>-0.06681321684731287</v>
       </c>
       <c r="C84">
-        <v>-0.02579094058845117</v>
+        <v>-0.00894224040902426</v>
       </c>
       <c r="D84">
-        <v>0.01637893669488934</v>
+        <v>-0.01266402761358903</v>
       </c>
       <c r="E84">
-        <v>-0.05593225666535051</v>
+        <v>0.038309151857158</v>
       </c>
       <c r="F84">
-        <v>0.05425939639512309</v>
+        <v>0.02878516783746794</v>
       </c>
       <c r="G84">
-        <v>-0.04458425039412592</v>
+        <v>-0.02687364219814735</v>
       </c>
       <c r="H84">
-        <v>-0.001568112707560108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.01423535024374981</v>
+      </c>
+      <c r="I84">
+        <v>0.009757521346464501</v>
+      </c>
+      <c r="J84">
+        <v>-0.07104873830300755</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.1072804246119961</v>
+        <v>-0.1217299046819989</v>
       </c>
       <c r="C85">
-        <v>-0.01225270844697355</v>
+        <v>-0.02461149567248744</v>
       </c>
       <c r="D85">
-        <v>-0.04242494637952359</v>
+        <v>0.01712259490223023</v>
       </c>
       <c r="E85">
-        <v>-0.07941418605568647</v>
+        <v>-0.01707240177322498</v>
       </c>
       <c r="F85">
-        <v>0.1559421072925196</v>
+        <v>0.008652645649106375</v>
       </c>
       <c r="G85">
-        <v>0.01698128031662923</v>
+        <v>-0.01353641262621692</v>
       </c>
       <c r="H85">
-        <v>0.09363824230508384</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.04297347604431569</v>
+      </c>
+      <c r="I85">
+        <v>0.04149026765881346</v>
+      </c>
+      <c r="J85">
+        <v>0.140903185938288</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.06812077768188808</v>
+        <v>-0.1208173583545665</v>
       </c>
       <c r="C86">
-        <v>-0.02011082950424807</v>
+        <v>0.04157776131154781</v>
       </c>
       <c r="D86">
-        <v>0.08283026742703209</v>
+        <v>0.3439283207104554</v>
       </c>
       <c r="E86">
-        <v>0.1086815976744187</v>
+        <v>0.8639745923367924</v>
       </c>
       <c r="F86">
-        <v>0.02009003776171692</v>
+        <v>-0.216110109534004</v>
       </c>
       <c r="G86">
-        <v>0.04363182821906023</v>
+        <v>0.114961802690125</v>
       </c>
       <c r="H86">
-        <v>0.2634016946308993</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.036475013767611</v>
+      </c>
+      <c r="I86">
+        <v>-0.08693969911050656</v>
+      </c>
+      <c r="J86">
+        <v>0.04419781281865988</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.1105099635970231</v>
+        <v>-0.1204389584912351</v>
       </c>
       <c r="C87">
-        <v>-0.05458934249429891</v>
+        <v>-0.107029677592443</v>
       </c>
       <c r="D87">
-        <v>0.06560060550033335</v>
+        <v>-0.07112243445382237</v>
       </c>
       <c r="E87">
-        <v>0.02639218803459112</v>
+        <v>0.01295460290201219</v>
       </c>
       <c r="F87">
-        <v>-0.01628286682227134</v>
+        <v>-0.02906634972653154</v>
       </c>
       <c r="G87">
-        <v>0.1243342307473827</v>
+        <v>-0.04339469569840752</v>
       </c>
       <c r="H87">
-        <v>0.005944364889856603</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.09163543252632929</v>
+      </c>
+      <c r="I87">
+        <v>-0.1848406816133011</v>
+      </c>
+      <c r="J87">
+        <v>-0.1908311501144775</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.07051764580361436</v>
+        <v>-0.05684607018377595</v>
       </c>
       <c r="C88">
-        <v>-0.04285075246494567</v>
+        <v>-0.02599258046742841</v>
       </c>
       <c r="D88">
-        <v>0.02345360035135756</v>
+        <v>0.02429956129934346</v>
       </c>
       <c r="E88">
-        <v>0.02511256768534384</v>
+        <v>-0.02096203943244817</v>
       </c>
       <c r="F88">
-        <v>0.0306086950579158</v>
+        <v>0.04871484382319874</v>
       </c>
       <c r="G88">
-        <v>0.04491462491778744</v>
+        <v>-0.01988373003185545</v>
       </c>
       <c r="H88">
-        <v>-0.01658910691900258</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.02931340362298644</v>
+      </c>
+      <c r="I88">
+        <v>-0.01106936303215014</v>
+      </c>
+      <c r="J88">
+        <v>0.04754977757451217</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.09492266043527593</v>
+        <v>-0.1409112843230191</v>
       </c>
       <c r="C89">
-        <v>0.3850365641997274</v>
+        <v>0.3625361735550275</v>
       </c>
       <c r="D89">
-        <v>0.04669749591315298</v>
+        <v>-0.1030299931613335</v>
       </c>
       <c r="E89">
-        <v>0.05041156486960628</v>
+        <v>-0.00345924106937147</v>
       </c>
       <c r="F89">
-        <v>-0.01405693653604178</v>
+        <v>-0.04479888866224474</v>
       </c>
       <c r="G89">
-        <v>-0.01039253562374744</v>
+        <v>-0.04247730025406725</v>
       </c>
       <c r="H89">
-        <v>-0.01275649608416935</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.006224935503908582</v>
+      </c>
+      <c r="I89">
+        <v>-0.03932448759644444</v>
+      </c>
+      <c r="J89">
+        <v>-0.0072358833843255</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.07231524695144639</v>
+        <v>-0.1037355514305937</v>
       </c>
       <c r="C90">
-        <v>0.2910883391503954</v>
+        <v>0.2864134836730903</v>
       </c>
       <c r="D90">
-        <v>0.05599460292184157</v>
+        <v>-0.07724064058770853</v>
       </c>
       <c r="E90">
-        <v>0.01821457924793818</v>
+        <v>0.00627049956997945</v>
       </c>
       <c r="F90">
-        <v>-0.03502146132680848</v>
+        <v>0.01725687163819436</v>
       </c>
       <c r="G90">
-        <v>0.02950141342466282</v>
+        <v>-0.02419220082959008</v>
       </c>
       <c r="H90">
-        <v>-0.03908889212321465</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.05190844352135988</v>
+      </c>
+      <c r="I90">
+        <v>-0.04361195774590285</v>
+      </c>
+      <c r="J90">
+        <v>-0.04614862615354164</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.08223512840430081</v>
+        <v>-0.08597634154540175</v>
       </c>
       <c r="C91">
-        <v>-0.01865421716195388</v>
+        <v>-0.02812738246856919</v>
       </c>
       <c r="D91">
-        <v>-0.02795719649483032</v>
+        <v>0.02069886490080759</v>
       </c>
       <c r="E91">
-        <v>-0.02636556479753867</v>
+        <v>0.005971287320071956</v>
       </c>
       <c r="F91">
-        <v>0.07486871789773739</v>
+        <v>-0.002663560929538506</v>
       </c>
       <c r="G91">
-        <v>-0.06979585755566475</v>
+        <v>-0.02020777088166795</v>
       </c>
       <c r="H91">
-        <v>-0.01945754524444321</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.01441631787727992</v>
+      </c>
+      <c r="I91">
+        <v>0.05822293447325369</v>
+      </c>
+      <c r="J91">
+        <v>0.08661912070514516</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.06880866019856929</v>
+        <v>-0.1159915731404748</v>
       </c>
       <c r="C92">
-        <v>0.356065548346101</v>
+        <v>0.3251311832127454</v>
       </c>
       <c r="D92">
-        <v>0.04068283934290376</v>
+        <v>-0.1068288012921164</v>
       </c>
       <c r="E92">
-        <v>0.01795434505391246</v>
+        <v>0.003294044769507111</v>
       </c>
       <c r="F92">
-        <v>-0.05693525362667494</v>
+        <v>-0.02766430128443473</v>
       </c>
       <c r="G92">
-        <v>-0.009256041652033925</v>
+        <v>-0.003337683125966618</v>
       </c>
       <c r="H92">
-        <v>-0.02263829999521108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.02119851172348099</v>
+      </c>
+      <c r="I92">
+        <v>-0.06812223860370986</v>
+      </c>
+      <c r="J92">
+        <v>0.02776673919069798</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.08364729584700828</v>
+        <v>-0.1111511969917146</v>
       </c>
       <c r="C93">
-        <v>0.3013696272962454</v>
+        <v>0.3105491354133406</v>
       </c>
       <c r="D93">
-        <v>0.02856898578073374</v>
+        <v>-0.08747705777385756</v>
       </c>
       <c r="E93">
-        <v>0.008099159417744039</v>
+        <v>0.02828339293926572</v>
       </c>
       <c r="F93">
-        <v>-0.03868245285746566</v>
+        <v>0.03563262290106863</v>
       </c>
       <c r="G93">
-        <v>-0.01886292272278248</v>
+        <v>-0.03263272747967758</v>
       </c>
       <c r="H93">
-        <v>0.004059731816508026</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.03759102074726103</v>
+      </c>
+      <c r="I93">
+        <v>-0.01070869174600159</v>
+      </c>
+      <c r="J93">
+        <v>-0.0334059045318625</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.09395488951365792</v>
+        <v>-0.1340724585571505</v>
       </c>
       <c r="C94">
-        <v>-0.0426476679204054</v>
+        <v>-0.04453036662792745</v>
       </c>
       <c r="D94">
-        <v>-0.02302059483397292</v>
+        <v>0.01810099877668116</v>
       </c>
       <c r="E94">
-        <v>-0.05508365463723949</v>
+        <v>-0.05405204578515893</v>
       </c>
       <c r="F94">
-        <v>0.1160393905091252</v>
+        <v>-0.001624437366126415</v>
       </c>
       <c r="G94">
-        <v>-0.05652167850938989</v>
+        <v>-0.01205857316988721</v>
       </c>
       <c r="H94">
-        <v>0.0412486343130167</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>-0.0324333682014095</v>
+      </c>
+      <c r="I94">
+        <v>0.0909799544340425</v>
+      </c>
+      <c r="J94">
+        <v>0.1116088948033381</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1286417206321708</v>
+        <v>-0.1204474514423092</v>
       </c>
       <c r="C95">
-        <v>-0.0803910602303131</v>
+        <v>-0.05239296444973703</v>
       </c>
       <c r="D95">
-        <v>0.09403505283691457</v>
+        <v>0.03266551267272213</v>
       </c>
       <c r="E95">
-        <v>0.08878940231392991</v>
+        <v>-0.02847162354530581</v>
       </c>
       <c r="F95">
-        <v>-0.06311334082594393</v>
+        <v>-0.03342705373274318</v>
       </c>
       <c r="G95">
-        <v>0.1011250058011708</v>
+        <v>-0.04631732113159959</v>
       </c>
       <c r="H95">
-        <v>0.06558920787635726</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.01259362501592324</v>
+      </c>
+      <c r="I95">
+        <v>-0.1190665464398907</v>
+      </c>
+      <c r="J95">
+        <v>-0.03039199048986352</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.009562721667314502</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.0007907390496321081</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.001361754237496286</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.002578347744862479</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.006216247304906576</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.002278549571003765</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>-0.001353053928670536</v>
+      </c>
+      <c r="I96">
+        <v>-0.0217484418213804</v>
+      </c>
+      <c r="J96">
+        <v>-0.01530825376953645</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>-0.1487653371803642</v>
+        <v>-0.169766974274557</v>
       </c>
       <c r="C97">
-        <v>0.04015857691954069</v>
+        <v>0.006043787965696582</v>
       </c>
       <c r="D97">
-        <v>-0.1989386186622556</v>
+        <v>0.03380550345875812</v>
       </c>
       <c r="E97">
-        <v>-0.8199764779941371</v>
+        <v>-0.1393789802008545</v>
       </c>
       <c r="F97">
-        <v>-0.2637902445559145</v>
+        <v>0.02269055471994484</v>
       </c>
       <c r="G97">
-        <v>0.1905860967387996</v>
+        <v>0.9221149744828014</v>
       </c>
       <c r="H97">
-        <v>-0.04160488145939584</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.05058830795297974</v>
+      </c>
+      <c r="I97">
+        <v>0.1531309016552591</v>
+      </c>
+      <c r="J97">
+        <v>-0.1195814850865428</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.3239295521378128</v>
+        <v>-0.2686677119874347</v>
       </c>
       <c r="C98">
-        <v>-0.0580980303582589</v>
+        <v>-0.03956040118271911</v>
       </c>
       <c r="D98">
-        <v>-0.2153789819800356</v>
+        <v>-0.03229662664296985</v>
       </c>
       <c r="E98">
-        <v>0.1555455187571078</v>
+        <v>0.08504365231370548</v>
       </c>
       <c r="F98">
-        <v>-0.11450785025604</v>
+        <v>-0.04882089998266713</v>
       </c>
       <c r="G98">
-        <v>-0.3239823566922688</v>
+        <v>-0.03945413061758659</v>
       </c>
       <c r="H98">
-        <v>-0.241449941907986</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.3712837060296896</v>
+      </c>
+      <c r="I98">
+        <v>0.2269800667902175</v>
+      </c>
+      <c r="J98">
+        <v>0.104913476951592</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>-0.08786987054637339</v>
+        <v>-0.05611888028095174</v>
       </c>
       <c r="C99">
-        <v>-0.02293104870379119</v>
+        <v>-0.0009028212747452794</v>
       </c>
       <c r="D99">
-        <v>-0.005347432747010266</v>
+        <v>0.02361928082409284</v>
       </c>
       <c r="E99">
-        <v>0.002769272951795344</v>
+        <v>-0.05147613716436131</v>
       </c>
       <c r="F99">
-        <v>-0.0170493194701688</v>
+        <v>-0.008126787995070776</v>
       </c>
       <c r="G99">
-        <v>0.02355985658342763</v>
+        <v>-0.01962480646721481</v>
       </c>
       <c r="H99">
-        <v>-0.06753516635369895</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.007331097588783966</v>
+      </c>
+      <c r="I99">
+        <v>0.006338113963619311</v>
+      </c>
+      <c r="J99">
+        <v>0.01964870323672476</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.06387352306441225</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.2742795372781853</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.8687032346960504</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.2811004088888124</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.1097782304353605</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.09079499822590047</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>0.06490699341519796</v>
+      </c>
+      <c r="I100">
+        <v>-0.06965915038859999</v>
+      </c>
+      <c r="J100">
+        <v>0.05186393716389354</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.06017103336135725</v>
+        <v>-0.03808889275434332</v>
       </c>
       <c r="C101">
-        <v>-0.001773879567163448</v>
+        <v>-0.007775792133446598</v>
       </c>
       <c r="D101">
-        <v>0.04742362705482873</v>
+        <v>-0.007303935218006159</v>
       </c>
       <c r="E101">
-        <v>0.01953996205908747</v>
+        <v>0.0001719155412334685</v>
       </c>
       <c r="F101">
-        <v>0.0385302030972308</v>
+        <v>0.01008944837530744</v>
       </c>
       <c r="G101">
-        <v>0.0327123802660513</v>
+        <v>-0.02801939326754053</v>
       </c>
       <c r="H101">
-        <v>0.08491321342305888</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.08862646365972331</v>
+      </c>
+      <c r="I101">
+        <v>-0.03062118076644981</v>
+      </c>
+      <c r="J101">
+        <v>0.06820235299894237</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +3967,16 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +3999,16 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4029,12 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
